--- a/biology/Virologie/Viroïde_du_rabougrissement_du_houblon/Viroïde_du_rabougrissement_du_houblon.xlsx
+++ b/biology/Virologie/Viroïde_du_rabougrissement_du_houblon/Viroïde_du_rabougrissement_du_houblon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Viro%C3%AFde_du_rabougrissement_du_houblon</t>
+          <t>Viroïde_du_rabougrissement_du_houblon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hop stunt virus
 Le viroïde du rabougrissement du houblon (HSVd, Hop stunt viroid) est une espèce de viroïdes appartenant au genre Hostuviroid, famille des Pospiviroidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viro%C3%AFde_du_rabougrissement_du_houblon</t>
+          <t>Viroïde_du_rabougrissement_du_houblon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome du HSVd est constitué d'une molécule d'ARN circulaire à simple brin de 295 à 303 nucléotides selon les isolats et variants[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome du HSVd est constitué d'une molécule d'ARN circulaire à simple brin de 295 à 303 nucléotides selon les isolats et variants. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Viro%C3%AFde_du_rabougrissement_du_houblon</t>
+          <t>Viroïde_du_rabougrissement_du_houblon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Gammes d'hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le HSVd infecte de nombreuses espèces de plantes, dont le houblon, le concombre, la vigne, les agrumes et divers arbres fruitiers (abricotier, amandier, grenadier, pêcher, poirier, prunier). 
-Il provoque des maladies chez divers hôtes, comme le rabougrissement du houblon, la cachexie des agrumes ou la moucheture du fruit du prunier et du pêcher. Cependant, chez certains hôtes, l'infection semble être latente, sans symptôme apparent. C'est le cas de la vigne et de l'abricotier[4].
+Il provoque des maladies chez divers hôtes, comme le rabougrissement du houblon, la cachexie des agrumes ou la moucheture du fruit du prunier et du pêcher. Cependant, chez certains hôtes, l'infection semble être latente, sans symptôme apparent. C'est le cas de la vigne et de l'abricotier.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Viro%C3%AFde_du_rabougrissement_du_houblon</t>
+          <t>Viroïde_du_rabougrissement_du_houblon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes souches du HSVd ont une répartition quasi-cosmopolite.
 On trouve ce viroïde notamment :
@@ -586,7 +604,7 @@
 en Océanie : Nouvelle-Zélande ;
 en Amérique du Nord : États-Unis (Arizona, Californie, Floride, Texas, Washington) ;
 en Amérique du Sud :  Argentine, Brésil, Colombie, Équateur, Jamaïque, Surinam, Trinité-et-Tobago, Venezuela.
-On a également signalé sa présence sur la vigne en Australie et en Allemagne, ainsi que sur des cultures de concombre sous abri en Finlande et aux Pays-Bas[5].
+On a également signalé sa présence sur la vigne en Australie et en Allemagne, ainsi que sur des cultures de concombre sous abri en Finlande et aux Pays-Bas.
 </t>
         </is>
       </c>
